--- a/data/CS1/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A66000-3144-4074-BC1D-30670BE443FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD2EB4-EDC2-4EDC-AF18-87AC9AB97F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,150 +180,150 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
-            <v>35.04</v>
+            <v>43.71</v>
           </cell>
           <cell r="C2">
-            <v>34.020000000000003</v>
+            <v>40.784999999999997</v>
           </cell>
           <cell r="D2">
-            <v>30</v>
+            <v>39.052499999999995</v>
           </cell>
           <cell r="E2">
-            <v>30.03</v>
+            <v>36.622500000000002</v>
           </cell>
           <cell r="F2">
-            <v>33.590000000000003</v>
+            <v>37.715000000000003</v>
           </cell>
           <cell r="G2">
-            <v>33.35</v>
+            <v>40.745000000000005</v>
           </cell>
           <cell r="H2">
-            <v>34.01</v>
+            <v>49.295000000000002</v>
           </cell>
           <cell r="I2">
-            <v>35.33</v>
+            <v>51.59</v>
           </cell>
           <cell r="J2">
-            <v>36.94</v>
+            <v>54.25</v>
           </cell>
           <cell r="K2">
-            <v>38.74</v>
+            <v>53.837499999999999</v>
           </cell>
           <cell r="L2">
-            <v>36.6</v>
+            <v>52.800000000000004</v>
           </cell>
           <cell r="M2">
-            <v>34.19</v>
+            <v>52.542499999999997</v>
           </cell>
           <cell r="N2">
-            <v>34</v>
+            <v>50.507499999999993</v>
           </cell>
           <cell r="O2">
-            <v>34</v>
+            <v>49.795000000000002</v>
           </cell>
           <cell r="P2">
-            <v>30</v>
+            <v>48.817500000000003</v>
           </cell>
           <cell r="Q2">
-            <v>28.8</v>
+            <v>48.914999999999999</v>
           </cell>
           <cell r="R2">
-            <v>29.9</v>
+            <v>49.67</v>
           </cell>
           <cell r="S2">
-            <v>38.25</v>
+            <v>52.125</v>
           </cell>
           <cell r="T2">
-            <v>39.950000000000003</v>
+            <v>54.620000000000005</v>
           </cell>
           <cell r="U2">
-            <v>41.45</v>
+            <v>55.040000000000006</v>
           </cell>
           <cell r="V2">
-            <v>44.83</v>
+            <v>53.769999999999996</v>
           </cell>
           <cell r="W2">
-            <v>44.82</v>
+            <v>50.392499999999998</v>
           </cell>
           <cell r="X2">
-            <v>40.9</v>
+            <v>45.482500000000002</v>
           </cell>
           <cell r="Y2">
-            <v>39.75</v>
+            <v>42.69</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>30.25</v>
+            <v>40.82</v>
           </cell>
           <cell r="C3">
-            <v>26.85</v>
+            <v>38.53</v>
           </cell>
           <cell r="D3">
-            <v>22.25</v>
+            <v>36.034999999999997</v>
           </cell>
           <cell r="E3">
-            <v>18.09</v>
+            <v>34.424999999999997</v>
           </cell>
           <cell r="F3">
-            <v>10</v>
+            <v>36.340000000000003</v>
           </cell>
           <cell r="G3">
-            <v>8</v>
+            <v>38.28</v>
           </cell>
           <cell r="H3">
-            <v>8.41</v>
+            <v>44.2</v>
           </cell>
           <cell r="I3">
-            <v>8.41</v>
+            <v>46.17</v>
           </cell>
           <cell r="J3">
-            <v>10.8</v>
+            <v>48.480000000000004</v>
           </cell>
           <cell r="K3">
-            <v>16.989999999999998</v>
+            <v>48.805</v>
           </cell>
           <cell r="L3">
-            <v>19.54</v>
+            <v>47.400000000000006</v>
           </cell>
           <cell r="M3">
-            <v>17.920000000000002</v>
+            <v>46.424999999999997</v>
           </cell>
           <cell r="N3">
-            <v>22.75</v>
+            <v>45.004999999999995</v>
           </cell>
           <cell r="O3">
-            <v>20</v>
+            <v>44.53</v>
           </cell>
           <cell r="P3">
-            <v>21.57</v>
+            <v>42.545000000000002</v>
           </cell>
           <cell r="Q3">
-            <v>19.399999999999999</v>
+            <v>42.21</v>
           </cell>
           <cell r="R3">
-            <v>23.8</v>
+            <v>43.08</v>
           </cell>
           <cell r="S3">
-            <v>29.3</v>
+            <v>47.5</v>
           </cell>
           <cell r="T3">
-            <v>35.270000000000003</v>
+            <v>49.730000000000004</v>
           </cell>
           <cell r="U3">
-            <v>41</v>
+            <v>50.510000000000005</v>
           </cell>
           <cell r="V3">
-            <v>43.02</v>
+            <v>50.79</v>
           </cell>
           <cell r="W3">
-            <v>43</v>
+            <v>48.534999999999997</v>
           </cell>
           <cell r="X3">
-            <v>41.37</v>
+            <v>43.954999999999998</v>
           </cell>
           <cell r="Y3">
-            <v>41.35</v>
+            <v>41.71</v>
           </cell>
         </row>
         <row r="4">
@@ -404,224 +404,224 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>2.68</v>
+            <v>25.342275000000001</v>
           </cell>
           <cell r="C2">
-            <v>3.23</v>
+            <v>24.594854999999999</v>
           </cell>
           <cell r="D2">
-            <v>7.6</v>
+            <v>27.759217499999998</v>
           </cell>
           <cell r="E2">
-            <v>4.3600000000000003</v>
+            <v>30.54975</v>
           </cell>
           <cell r="F2">
-            <v>4.41</v>
+            <v>32.125005000000002</v>
           </cell>
           <cell r="G2">
-            <v>5.98</v>
+            <v>29.361535</v>
           </cell>
           <cell r="H2">
-            <v>5.19</v>
+            <v>27.199200000000001</v>
           </cell>
           <cell r="I2">
-            <v>6.08</v>
+            <v>29.454137500000002</v>
           </cell>
           <cell r="J2">
-            <v>4.68</v>
+            <v>25.75685</v>
           </cell>
           <cell r="K2">
-            <v>4.45</v>
+            <v>23.352209999999999</v>
           </cell>
           <cell r="L2">
-            <v>6.58</v>
+            <v>22.9788</v>
           </cell>
           <cell r="M2">
-            <v>9.39</v>
+            <v>20.269462499999999</v>
           </cell>
           <cell r="N2">
-            <v>9.75</v>
+            <v>22.549799999999994</v>
           </cell>
           <cell r="O2">
-            <v>10.65</v>
+            <v>18.743400000000001</v>
           </cell>
           <cell r="P2">
-            <v>11.37</v>
+            <v>19.593999999999998</v>
           </cell>
           <cell r="Q2">
-            <v>11.01</v>
+            <v>16.172449999999998</v>
           </cell>
           <cell r="R2">
-            <v>4.37</v>
+            <v>12.758287500000002</v>
           </cell>
           <cell r="S2">
-            <v>5.17</v>
+            <v>14.871139999999999</v>
           </cell>
           <cell r="T2">
-            <v>6.09</v>
+            <v>10.08586</v>
           </cell>
           <cell r="U2">
-            <v>4.7699999999999996</v>
+            <v>8.7737250000000007</v>
           </cell>
           <cell r="V2">
-            <v>4.6399999999999997</v>
+            <v>9.8389550000000003</v>
           </cell>
           <cell r="W2">
-            <v>3.6</v>
+            <v>13.74175</v>
           </cell>
           <cell r="X2">
-            <v>4.26</v>
+            <v>16.117327500000002</v>
           </cell>
           <cell r="Y2">
-            <v>20.81</v>
+            <v>14.23521</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>27.12</v>
+            <v>20.34</v>
           </cell>
           <cell r="C3">
-            <v>28.52</v>
+            <v>21.39</v>
           </cell>
           <cell r="D3">
-            <v>39.049999999999997</v>
+            <v>29.287499999999998</v>
           </cell>
           <cell r="E3">
-            <v>44.27</v>
+            <v>33.202500000000001</v>
           </cell>
           <cell r="F3">
-            <v>48.18</v>
+            <v>36.134999999999998</v>
           </cell>
           <cell r="G3">
-            <v>47.89</v>
+            <v>35.917500000000004</v>
           </cell>
           <cell r="H3">
-            <v>47.56</v>
+            <v>35.67</v>
           </cell>
           <cell r="I3">
-            <v>49.85</v>
+            <v>37.387500000000003</v>
           </cell>
           <cell r="J3">
-            <v>46.4</v>
+            <v>34.799999999999997</v>
           </cell>
           <cell r="K3">
-            <v>40.1</v>
+            <v>30.075000000000003</v>
           </cell>
           <cell r="L3">
-            <v>41.24</v>
+            <v>30.93</v>
           </cell>
           <cell r="M3">
-            <v>33.729999999999997</v>
+            <v>25.297499999999999</v>
           </cell>
           <cell r="N3">
-            <v>38.44</v>
+            <v>28.83</v>
           </cell>
           <cell r="O3">
-            <v>28.68</v>
+            <v>21.509999999999998</v>
           </cell>
           <cell r="P3">
-            <v>30.2</v>
+            <v>22.65</v>
           </cell>
           <cell r="Q3">
-            <v>27.12</v>
+            <v>20.34</v>
           </cell>
           <cell r="R3">
-            <v>18.190000000000001</v>
+            <v>13.642500000000002</v>
           </cell>
           <cell r="S3">
-            <v>22.68</v>
+            <v>17.009999999999998</v>
           </cell>
           <cell r="T3">
-            <v>14.82</v>
+            <v>11.115</v>
           </cell>
           <cell r="U3">
-            <v>13</v>
+            <v>9.75</v>
           </cell>
           <cell r="V3">
-            <v>14.51</v>
+            <v>10.8825</v>
           </cell>
           <cell r="W3">
-            <v>17.04</v>
+            <v>12.78</v>
           </cell>
           <cell r="X3">
-            <v>18.21</v>
+            <v>13.657500000000001</v>
           </cell>
           <cell r="Y3">
-            <v>14</v>
+            <v>10.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>16.43</v>
+            <v>27.930999999999997</v>
           </cell>
           <cell r="C4">
-            <v>15.51</v>
+            <v>26.366999999999997</v>
           </cell>
           <cell r="D4">
-            <v>16.440000000000001</v>
+            <v>27.948</v>
           </cell>
           <cell r="E4">
-            <v>16.41</v>
+            <v>27.896999999999998</v>
           </cell>
           <cell r="F4">
-            <v>16.920000000000002</v>
+            <v>28.764000000000003</v>
           </cell>
           <cell r="G4">
-            <v>14.12</v>
+            <v>24.003999999999998</v>
           </cell>
           <cell r="H4">
-            <v>12.35</v>
+            <v>20.994999999999997</v>
           </cell>
           <cell r="I4">
-            <v>11.65</v>
+            <v>19.805</v>
           </cell>
           <cell r="J4">
-            <v>10.45</v>
+            <v>17.764999999999997</v>
           </cell>
           <cell r="K4">
-            <v>9.51</v>
+            <v>16.166999999999998</v>
           </cell>
           <cell r="L4">
-            <v>7.8</v>
+            <v>13.26</v>
           </cell>
           <cell r="M4">
-            <v>7.83</v>
+            <v>13.311</v>
           </cell>
           <cell r="N4">
-            <v>8.5500000000000007</v>
+            <v>14.535</v>
           </cell>
           <cell r="O4">
-            <v>8.5500000000000007</v>
+            <v>14.535</v>
           </cell>
           <cell r="P4">
-            <v>9.5</v>
+            <v>16.149999999999999</v>
           </cell>
           <cell r="Q4">
-            <v>7.45</v>
+            <v>12.664999999999999</v>
           </cell>
           <cell r="R4">
-            <v>6.27</v>
+            <v>10.658999999999999</v>
           </cell>
           <cell r="S4">
-            <v>6.98</v>
+            <v>11.866</v>
           </cell>
           <cell r="T4">
-            <v>5.21</v>
+            <v>8.8569999999999993</v>
           </cell>
           <cell r="U4">
-            <v>5.13</v>
+            <v>8.7210000000000001</v>
           </cell>
           <cell r="V4">
-            <v>5.41</v>
+            <v>9.1969999999999992</v>
           </cell>
           <cell r="W4">
-            <v>9.5</v>
+            <v>16.149999999999999</v>
           </cell>
           <cell r="X4">
-            <v>10.74</v>
+            <v>18.257999999999999</v>
           </cell>
           <cell r="Y4">
-            <v>10.74</v>
+            <v>18.257999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -858,13 +858,13 @@
             <v>24.97</v>
           </cell>
           <cell r="D2">
-            <v>0</v>
+            <v>24.97</v>
           </cell>
           <cell r="E2">
             <v>25.97</v>
           </cell>
           <cell r="F2">
-            <v>0</v>
+            <v>25.97</v>
           </cell>
           <cell r="G2">
             <v>24.97</v>
@@ -926,81 +926,81 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>4.22</v>
+            <v>28.36</v>
           </cell>
           <cell r="C3">
-            <v>0</v>
+            <v>28.36</v>
           </cell>
           <cell r="D3">
-            <v>4.22</v>
+            <v>27.234999999999999</v>
           </cell>
           <cell r="E3">
-            <v>4.22</v>
+            <v>28.86</v>
           </cell>
           <cell r="F3">
-            <v>4.22</v>
+            <v>28.86</v>
           </cell>
           <cell r="G3">
-            <v>4.22</v>
+            <v>28.36</v>
           </cell>
           <cell r="H3">
-            <v>4.22</v>
+            <v>37.325000000000003</v>
           </cell>
           <cell r="I3">
-            <v>4.22</v>
+            <v>30.75</v>
           </cell>
           <cell r="J3">
-            <v>4.22</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="K3">
-            <v>0</v>
+            <v>34.879999999999995</v>
           </cell>
           <cell r="L3">
-            <v>0</v>
+            <v>32.489999999999995</v>
           </cell>
           <cell r="M3">
-            <v>0</v>
+            <v>32.489999999999995</v>
           </cell>
           <cell r="N3">
-            <v>0</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="O3">
-            <v>0</v>
+            <v>32.5</v>
           </cell>
           <cell r="P3">
-            <v>0</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="Q3">
-            <v>0</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="R3">
-            <v>0</v>
+            <v>34.885000000000005</v>
           </cell>
           <cell r="S3">
-            <v>5.8</v>
+            <v>36.875</v>
           </cell>
           <cell r="T3">
-            <v>5.9</v>
+            <v>36.875</v>
           </cell>
           <cell r="U3">
-            <v>5.9</v>
+            <v>36.875</v>
           </cell>
           <cell r="V3">
-            <v>6.1</v>
+            <v>36.875</v>
           </cell>
           <cell r="W3">
-            <v>5.9</v>
+            <v>35.370000000000005</v>
           </cell>
           <cell r="X3">
-            <v>5.6</v>
+            <v>30.75</v>
           </cell>
           <cell r="Y3">
-            <v>36.6</v>
+            <v>30.75</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0</v>
+            <v>31.75</v>
           </cell>
           <cell r="C4">
             <v>31.75</v>
@@ -1300,76 +1300,76 @@
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>7.99</v>
+            <v>10.26</v>
           </cell>
           <cell r="C2">
-            <v>7.99</v>
+            <v>10.909500000000001</v>
           </cell>
           <cell r="D2">
-            <v>7.99</v>
+            <v>10.084849999999999</v>
           </cell>
           <cell r="E2">
-            <v>10.36</v>
+            <v>8.7750000000000004</v>
           </cell>
           <cell r="F2">
-            <v>9.69</v>
+            <v>7.9588000000000001</v>
           </cell>
           <cell r="G2">
-            <v>8.8800000000000008</v>
+            <v>6.3310499999999994</v>
           </cell>
           <cell r="H2">
-            <v>8.09</v>
+            <v>5.706900000000001</v>
           </cell>
           <cell r="I2">
-            <v>6.99</v>
+            <v>4.8929999999999998</v>
           </cell>
           <cell r="J2">
-            <v>2.69</v>
+            <v>4.0228999999999999</v>
           </cell>
           <cell r="K2">
-            <v>4.49</v>
+            <v>4.4879999999999995</v>
           </cell>
           <cell r="L2">
-            <v>6.49</v>
+            <v>4.2223500000000005</v>
           </cell>
           <cell r="M2">
-            <v>7.74</v>
+            <v>4.0441500000000001</v>
           </cell>
           <cell r="N2">
-            <v>7.65</v>
+            <v>3.6749999999999998</v>
           </cell>
           <cell r="O2">
-            <v>8.39</v>
+            <v>4.1912000000000003</v>
           </cell>
           <cell r="P2">
-            <v>9.49</v>
+            <v>4.4894500000000006</v>
           </cell>
           <cell r="Q2">
-            <v>8.32</v>
+            <v>3.9945499999999998</v>
           </cell>
           <cell r="R2">
-            <v>7.65</v>
+            <v>2.9760000000000004</v>
           </cell>
           <cell r="S2">
-            <v>6.37</v>
+            <v>2.5608</v>
           </cell>
           <cell r="T2">
-            <v>6.49</v>
+            <v>3.0141000000000004</v>
           </cell>
           <cell r="U2">
-            <v>6.49</v>
+            <v>2.2196999999999996</v>
           </cell>
           <cell r="V2">
-            <v>7.73</v>
+            <v>3.6414</v>
           </cell>
           <cell r="W2">
-            <v>8.56</v>
+            <v>6.7825499999999996</v>
           </cell>
           <cell r="X2">
-            <v>6.99</v>
+            <v>7.5711999999999993</v>
           </cell>
           <cell r="Y2">
-            <v>7.89</v>
+            <v>6.9015499999999994</v>
           </cell>
         </row>
         <row r="3">
@@ -1524,150 +1524,150 @@
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>46.31</v>
+            <v>42.153333333333336</v>
           </cell>
           <cell r="C2">
-            <v>46.31</v>
+            <v>42.486666666666672</v>
           </cell>
           <cell r="D2">
-            <v>46.31</v>
+            <v>42.486666666666672</v>
           </cell>
           <cell r="E2">
-            <v>64.64</v>
+            <v>51.303333333333335</v>
           </cell>
           <cell r="F2">
-            <v>48.31</v>
+            <v>44.726666666666667</v>
           </cell>
           <cell r="G2">
-            <v>42</v>
+            <v>53.636666666666677</v>
           </cell>
           <cell r="H2">
-            <v>48.31</v>
+            <v>52.483333333333327</v>
           </cell>
           <cell r="I2">
-            <v>42</v>
+            <v>40.266666666666673</v>
           </cell>
           <cell r="J2">
-            <v>42</v>
+            <v>40.466666666666669</v>
           </cell>
           <cell r="K2">
-            <v>43</v>
+            <v>59.133333333333333</v>
           </cell>
           <cell r="L2">
-            <v>43</v>
+            <v>40.833333333333336</v>
           </cell>
           <cell r="M2">
-            <v>43</v>
+            <v>40.833333333333336</v>
           </cell>
           <cell r="N2">
-            <v>99</v>
+            <v>59.5</v>
           </cell>
           <cell r="O2">
-            <v>99</v>
+            <v>59.5</v>
           </cell>
           <cell r="P2">
-            <v>43</v>
+            <v>44.09</v>
           </cell>
           <cell r="Q2">
-            <v>43</v>
+            <v>40.800000000000004</v>
           </cell>
           <cell r="R2">
-            <v>43</v>
+            <v>40.800000000000004</v>
           </cell>
           <cell r="S2">
-            <v>43</v>
+            <v>41.06666666666667</v>
           </cell>
           <cell r="T2">
-            <v>43</v>
+            <v>40.866666666666667</v>
           </cell>
           <cell r="U2">
-            <v>43</v>
+            <v>44.09</v>
           </cell>
           <cell r="V2">
-            <v>43</v>
+            <v>40.6</v>
           </cell>
           <cell r="W2">
-            <v>48.31</v>
+            <v>45.860000000000007</v>
           </cell>
           <cell r="X2">
-            <v>35.4</v>
+            <v>37.6</v>
           </cell>
           <cell r="Y2">
-            <v>35.4</v>
+            <v>37.6</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>49.87</v>
+            <v>36.216666666666669</v>
           </cell>
           <cell r="C3">
-            <v>49.87</v>
+            <v>36.88333333333334</v>
           </cell>
           <cell r="D3">
-            <v>49.87</v>
+            <v>36.88333333333334</v>
           </cell>
           <cell r="E3">
-            <v>49.87</v>
+            <v>45.351666666666667</v>
           </cell>
           <cell r="F3">
-            <v>49.87</v>
+            <v>40.36333333333333</v>
           </cell>
           <cell r="G3">
-            <v>49.87</v>
+            <v>61.338333333333338</v>
           </cell>
           <cell r="H3">
+            <v>60.76166666666667</v>
+          </cell>
+          <cell r="I3">
+            <v>39.833333333333336</v>
+          </cell>
+          <cell r="J3">
+            <v>40.233333333333334</v>
+          </cell>
+          <cell r="K3">
+            <v>49.266666666666666</v>
+          </cell>
+          <cell r="L3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="M3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="N3">
+            <v>49.45</v>
+          </cell>
+          <cell r="O3">
+            <v>49.45</v>
+          </cell>
+          <cell r="P3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="Q3">
             <v>40.1</v>
           </cell>
-          <cell r="I3">
-            <v>39.4</v>
-          </cell>
-          <cell r="J3">
-            <v>39.4</v>
-          </cell>
-          <cell r="K3">
-            <v>95</v>
-          </cell>
-          <cell r="L3">
-            <v>40.1</v>
-          </cell>
-          <cell r="M3">
-            <v>40.1</v>
-          </cell>
-          <cell r="N3">
-            <v>40.1</v>
-          </cell>
-          <cell r="O3">
-            <v>40.1</v>
-          </cell>
-          <cell r="P3">
-            <v>49.87</v>
-          </cell>
-          <cell r="Q3">
+          <cell r="R3">
+            <v>40.400000000000006</v>
+          </cell>
+          <cell r="S3">
+            <v>40.63333333333334</v>
+          </cell>
+          <cell r="T3">
+            <v>40.533333333333331</v>
+          </cell>
+          <cell r="U3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="V3">
             <v>40</v>
           </cell>
-          <cell r="R3">
-            <v>39.4</v>
-          </cell>
-          <cell r="S3">
-            <v>40</v>
-          </cell>
-          <cell r="T3">
-            <v>39.4</v>
-          </cell>
-          <cell r="U3">
-            <v>49.87</v>
-          </cell>
-          <cell r="V3">
-            <v>39.4</v>
-          </cell>
           <cell r="W3">
-            <v>49.87</v>
+            <v>42.63</v>
           </cell>
           <cell r="X3">
-            <v>37.4</v>
+            <v>38.799999999999997</v>
           </cell>
           <cell r="Y3">
-            <v>37.4</v>
+            <v>38.799999999999997</v>
           </cell>
         </row>
         <row r="4">
@@ -1822,150 +1822,150 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="C3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="D3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="E3">
-            <v>39.4</v>
+            <v>27.917499999999997</v>
           </cell>
           <cell r="F3">
-            <v>39.4</v>
+            <v>31.63</v>
           </cell>
           <cell r="G3">
-            <v>7.06</v>
+            <v>23.537500000000001</v>
           </cell>
           <cell r="H3">
-            <v>29.97</v>
+            <v>29.28</v>
           </cell>
           <cell r="I3">
-            <v>20.55</v>
+            <v>26.9175</v>
           </cell>
           <cell r="J3">
-            <v>20.55</v>
+            <v>26.9175</v>
           </cell>
           <cell r="K3">
-            <v>36.65</v>
+            <v>30.950000000000003</v>
           </cell>
           <cell r="L3">
-            <v>36.65</v>
+            <v>33.162500000000001</v>
           </cell>
           <cell r="M3">
-            <v>36.65</v>
+            <v>30.935000000000002</v>
           </cell>
           <cell r="N3">
-            <v>29.97</v>
+            <v>29.265000000000001</v>
           </cell>
           <cell r="O3">
-            <v>29.97</v>
+            <v>29.265000000000001</v>
           </cell>
           <cell r="P3">
-            <v>29.97</v>
+            <v>31.4925</v>
           </cell>
           <cell r="Q3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="R3">
-            <v>36.65</v>
+            <v>33.162500000000001</v>
           </cell>
           <cell r="S3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="T3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="U3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="V3">
-            <v>36.65</v>
+            <v>30.92</v>
           </cell>
           <cell r="W3">
-            <v>29.97</v>
+            <v>29.25</v>
           </cell>
           <cell r="X3">
-            <v>26.19</v>
+            <v>28.305</v>
           </cell>
           <cell r="Y3">
-            <v>26.19</v>
+            <v>27.532499999999999</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.2200000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="C4">
-            <v>2.2000000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="D4">
-            <v>2.2200000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="E4">
-            <v>2.2200000000000002</v>
+            <v>31.744999999999997</v>
           </cell>
           <cell r="F4">
-            <v>37.51</v>
+            <v>34.22</v>
           </cell>
           <cell r="G4">
-            <v>37.520000000000003</v>
+            <v>18.045000000000002</v>
           </cell>
           <cell r="H4">
-            <v>37.520000000000003</v>
+            <v>29.509999999999998</v>
           </cell>
           <cell r="I4">
-            <v>20.02</v>
+            <v>24.795000000000002</v>
           </cell>
           <cell r="J4">
-            <v>26</v>
+            <v>24.795000000000002</v>
           </cell>
           <cell r="K4">
-            <v>37.51</v>
+            <v>32.85</v>
           </cell>
           <cell r="L4">
-            <v>37.51</v>
+            <v>34.325000000000003</v>
           </cell>
           <cell r="M4">
-            <v>37.9</v>
+            <v>32.840000000000003</v>
           </cell>
           <cell r="N4">
-            <v>37.9</v>
+            <v>29.5</v>
           </cell>
           <cell r="O4">
-            <v>37.9</v>
+            <v>29.5</v>
           </cell>
           <cell r="P4">
-            <v>37.51</v>
+            <v>30.984999999999999</v>
           </cell>
           <cell r="Q4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="R4">
-            <v>25.67</v>
+            <v>34.325000000000003</v>
           </cell>
           <cell r="S4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="T4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="U4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="V4">
-            <v>37.51</v>
+            <v>32.83</v>
           </cell>
           <cell r="W4">
-            <v>37.51</v>
+            <v>29.490000000000002</v>
           </cell>
           <cell r="X4">
-            <v>30.19</v>
+            <v>27.6</v>
           </cell>
           <cell r="Y4">
-            <v>30.19</v>
+            <v>27.085000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2240,7 +2240,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,99 +2422,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>63.470109906981506</v>
+        <v>79.174614841157577</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>61.622521091196091</v>
+        <v>73.876382207655269</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>54.340847523100607</v>
+        <v>70.738198263196196</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>54.395188370623707</v>
+        <v>66.336589613825069</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>60.843635610031647</v>
+        <v>68.31550214445798</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>60.408908829846844</v>
+        <v>73.803927744291144</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>61.604407475355046</v>
+        <v>89.291069288374814</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>63.995404766371472</v>
+        <v>93.448144123892007</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>66.911696916777871</v>
+        <v>98.266365937606921</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>70.17214776816391</v>
+        <v>97.519179284164295</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>66.295833978182742</v>
+        <v>95.639891640657069</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>61.930452560493649</v>
+        <v>95.17346603275044</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>61.586293859514015</v>
+        <v>91.487345209100113</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>61.586293859514015</v>
+        <v>90.196750080426483</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>54.340847523100607</v>
+        <v>88.426144131965458</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>52.167213622176583</v>
+        <v>88.602751886415533</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>54.159711364690267</v>
+        <v>89.970329882413566</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>69.284580591953272</v>
+        <v>94.417222571387299</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>72.363895284928972</v>
+        <v>98.936569723725171</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>75.080937661084008</v>
+        <v>99.697341589048591</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>81.203339815353331</v>
+        <v>97.396912377237314</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>81.1852261995123</v>
+        <v>91.279038626928241</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>74.084688789827155</v>
+        <v>82.385253248980774</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>72.001622968108293</v>
+        <v>77.327026025372149</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2523,99 +2523,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>54.793687919126441</v>
+        <v>73.939779863098892</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>48.635058533175041</v>
+        <v>69.791761835502214</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>40.302795246299617</v>
+        <v>65.272414683164342</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>32.767531056429661</v>
+        <v>62.356122532757936</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>18.113615841033536</v>
+        <v>65.824879966315876</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>14.490892672826828</v>
+        <v>69.338921439476366</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>15.233550922309202</v>
+        <v>80.062182017368229</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>15.233550922309202</v>
+        <v>83.630564338051826</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>19.562705108316219</v>
+        <v>87.81480959733058</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>30.775033313915973</v>
+        <v>88.403502112164162</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>35.394005353379526</v>
+        <v>85.858539086498965</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>32.459599587132097</v>
+        <v>84.092461541998176</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>41.208476038351293</v>
+        <v>81.520328092571418</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>36.227231682067071</v>
+        <v>80.659931340122327</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>39.071069369109331</v>
+        <v>77.064378595677169</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>35.140414731605055</v>
+        <v>76.457572465002556</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>43.110405701659815</v>
+        <v>78.033457043172461</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>53.072894414228259</v>
+        <v>86.03967524490929</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>63.886723071325285</v>
+        <v>90.079011577459781</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>74.265824948237494</v>
+        <v>91.491873613060392</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>77.924775348126275</v>
+        <v>91.99905485660932</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>77.888548116444198</v>
+        <v>87.914434484456251</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>74.93602873435573</v>
+        <v>79.618398429262896</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>74.899801502673668</v>
+        <v>75.551891672950873</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2870,99 +2870,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$7</f>
-        <v>4.8544490453969873</v>
+        <v>45.904023388782811</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$7</f>
-        <v>5.8506979166538313</v>
+        <v>44.550175513592279</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$7</f>
-        <v>13.766348039185486</v>
+        <v>50.281980184269528</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$7</f>
-        <v>7.8975365066906216</v>
+        <v>55.336643553961423</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$7</f>
-        <v>7.9881045858957886</v>
+        <v>58.189999946128154</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$7</f>
-        <v>10.831942272938054</v>
+        <v>53.184356549306059</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$7</f>
-        <v>9.4009666214964049</v>
+        <v>49.267585998343932</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$7</f>
-        <v>11.01307843134839</v>
+        <v>53.352093160397992</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$7</f>
-        <v>8.4771722136036942</v>
+        <v>46.654968617512459</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$7</f>
-        <v>8.0605590492599237</v>
+        <v>42.299296097914173</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$7</f>
-        <v>11.918759223400066</v>
+        <v>41.622915568794141</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$7</f>
-        <v>17.008685274730489</v>
+        <v>36.715325702923515</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$7</f>
-        <v>17.660775445007697</v>
+        <v>40.845841449213786</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$7</f>
-        <v>19.291000870700714</v>
+        <v>33.951074715482797</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$7</f>
-        <v>20.595181211255127</v>
+        <v>35.491818878921102</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$7</f>
-        <v>19.943091040977922</v>
+        <v>29.294154650832276</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$7</f>
-        <v>7.9156501225316545</v>
+        <v>23.109871856446016</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$7</f>
-        <v>9.3647393898143374</v>
+        <v>26.937011707822741</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$7</f>
-        <v>11.031192047189423</v>
+        <v>18.26913934664465</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$7</f>
-        <v>8.6401947561729955</v>
+        <v>15.892388414487195</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$7</f>
-        <v>8.4047177502395591</v>
+        <v>17.821905114721609</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$7</f>
-        <v>6.5209017027720728</v>
+        <v>24.891278048352255</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$7</f>
-        <v>7.7164003482802856</v>
+        <v>29.194307871912546</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$7</f>
-        <v>37.694434565190782</v>
+        <v>25.785112535643901</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2971,99 +2971,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$7</f>
-        <v>49.124126160882945</v>
+        <v>36.843094620662207</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$7</f>
-        <v>51.660032378627641</v>
+        <v>38.745024283970729</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$7</f>
-        <v>70.733669859235945</v>
+        <v>53.050252394426963</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$7</f>
-        <v>80.188977328255461</v>
+        <v>60.141732996191593</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$7</f>
-        <v>87.271401122099576</v>
+        <v>65.453550841574668</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$7</f>
-        <v>86.746106262709603</v>
+        <v>65.059579697032206</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$7</f>
-        <v>86.148356939955491</v>
+        <v>64.611267704966622</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$7</f>
-        <v>90.296374967552168</v>
+        <v>67.722281225664133</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$7</f>
-        <v>84.047177502395598</v>
+        <v>63.035383126796695</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$7</f>
-        <v>72.635599522544481</v>
+        <v>54.476699641908361</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$7</f>
-        <v>74.700551728422298</v>
+        <v>56.02541379631672</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$7</f>
-        <v>61.097226231806104</v>
+        <v>45.822919673854585</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$7</f>
-        <v>69.628739292932906</v>
+        <v>52.221554469699676</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$7</f>
-        <v>51.949850232084174</v>
+        <v>38.96238767406313</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$7</f>
-        <v>54.703119839921271</v>
+        <v>41.027339879940953</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$7</f>
-        <v>49.124126160882945</v>
+        <v>36.843094620662207</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$7</f>
-        <v>32.94866721484</v>
+        <v>24.711500411130004</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$7</f>
-        <v>41.081680727464054</v>
+        <v>30.811260545598039</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$7</f>
-        <v>26.844378676411697</v>
+        <v>20.133284007308774</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$7</f>
-        <v>23.547700593343595</v>
+        <v>17.660775445007697</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$7</f>
-        <v>26.282856585339658</v>
+        <v>19.712142439004744</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$7</f>
-        <v>30.865601393121143</v>
+        <v>23.149201044840858</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$7</f>
-        <v>32.98489444652207</v>
+        <v>24.73867083489155</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$7</f>
-        <v>25.359062177446948</v>
+        <v>19.019296633085212</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3072,99 +3072,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$7</f>
-        <v>29.760670826818096</v>
+        <v>50.593140405590759</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$7</f>
-        <v>28.09421816944301</v>
+        <v>47.760170888053118</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$7</f>
-        <v>29.778784442659134</v>
+        <v>50.623933552520526</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$7</f>
-        <v>29.72444359513603</v>
+        <v>50.531554111731246</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$7</f>
-        <v>30.648238003028744</v>
+        <v>52.102004605148863</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$7</f>
-        <v>25.576425567539349</v>
+        <v>43.479923464816892</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$7</f>
-        <v>22.370315563676414</v>
+        <v>38.0295364582499</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$7</f>
-        <v>21.102362454804069</v>
+        <v>35.874016173166915</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$7</f>
-        <v>18.928728553880042</v>
+        <v>32.178838541596072</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$7</f>
-        <v>17.226048664822891</v>
+        <v>29.28428273019891</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$7</f>
-        <v>14.128620356006156</v>
+        <v>24.018654605210468</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$7</f>
-        <v>14.182961203529258</v>
+        <v>24.111034045999737</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$7</f>
-        <v>15.487141544083673</v>
+        <v>26.328140624942243</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$7</f>
-        <v>15.487141544083673</v>
+        <v>26.328140624942243</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$7</f>
-        <v>17.207935048981859</v>
+        <v>29.253489583269157</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$7</f>
-        <v>13.494643801569984</v>
+        <v>22.940894462668972</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$7</f>
-        <v>11.357237132328025</v>
+        <v>19.307303124957642</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$7</f>
-        <v>12.643303857041408</v>
+        <v>21.493616556970391</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$7</f>
-        <v>9.4371938531784707</v>
+        <v>16.043229550403399</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$7</f>
-        <v>9.2922849264502023</v>
+        <v>15.796884374965346</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$7</f>
-        <v>9.7994661699991426</v>
+        <v>16.659092488998539</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$7</f>
-        <v>17.207935048981859</v>
+        <v>29.253489583269157</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$7</f>
-        <v>19.454023413270015</v>
+        <v>33.071839802559026</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$7</f>
-        <v>19.454023413270015</v>
+        <v>33.071839802559026</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>45.229698755060731</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$9</f>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>47.04106033916409</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$9</f>
@@ -3891,99 +3891,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$9</f>
-        <v>7.6439458849161515</v>
+        <v>51.3702145251711</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>51.3702145251711</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$9</f>
-        <v>7.6439458849161515</v>
+        <v>49.332432743054831</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$9</f>
-        <v>7.6439458849161515</v>
+        <v>52.275895317222783</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$9</f>
-        <v>7.6439458849161515</v>
+        <v>52.275895317222783</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$9</f>
-        <v>7.6439458849161515</v>
+        <v>51.3702145251711</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$9</f>
-        <v>7.6439458849161515</v>
+        <v>67.609071126657668</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$9</f>
-        <v>7.6439458849161515</v>
+        <v>55.699368711178117</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$9</f>
-        <v>7.6439458849161515</v>
+        <v>58.833024251676925</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>63.180292053524958</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>58.851137867517942</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>58.851137867517942</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>58.833024251676925</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>58.869251483358987</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>58.833024251676925</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>58.833024251676925</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>63.189348861445495</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$9</f>
-        <v>10.50589718779945</v>
+        <v>66.793958413811154</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$9</f>
-        <v>10.687033346209786</v>
+        <v>66.793958413811154</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$9</f>
-        <v>10.687033346209786</v>
+        <v>66.793958413811154</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$9</f>
-        <v>11.049305663030456</v>
+        <v>66.793958413811154</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$9</f>
-        <v>10.687033346209786</v>
+        <v>64.067859229735618</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$9</f>
-        <v>10.143624870978778</v>
+        <v>55.699368711178117</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$9</f>
-        <v>66.295833978182742</v>
+        <v>55.699368711178117</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$9</f>
-        <v>0</v>
+        <v>57.510730295281469</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$9</f>
@@ -4685,99 +4685,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$7</f>
-        <v>14.472779056985795</v>
+        <v>18.584569852900405</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$7</f>
-        <v>14.472779056985795</v>
+        <v>19.761049201775538</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$7</f>
-        <v>14.472779056985795</v>
+        <v>18.267309871444702</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$7</f>
-        <v>18.765706011310741</v>
+        <v>15.894697900506927</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$7</f>
-        <v>17.552093749961493</v>
+        <v>14.416264575561769</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$7</f>
-        <v>16.084890866837782</v>
+        <v>11.467820757037535</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$7</f>
-        <v>14.653915215396129</v>
+        <v>10.337259424319429</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$7</f>
-        <v>12.661417472882441</v>
+        <v>8.8629922310177083</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$7</f>
-        <v>4.8725626612380211</v>
+        <v>7.2869265166893804</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$7</f>
-        <v>8.133013512624057</v>
+        <v>8.129390789455849</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$7</f>
-        <v>11.755736680830765</v>
+        <v>7.6482025846387955</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$7</f>
-        <v>14.019938660959957</v>
+        <v>7.3254179503515768</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$7</f>
-        <v>13.856916118390654</v>
+        <v>6.6567538215798239</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$7</f>
-        <v>15.197323690627137</v>
+        <v>7.5917786712939757</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$7</f>
-        <v>17.189821433140825</v>
+        <v>8.1320172637528021</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$7</f>
-        <v>15.070528379739901</v>
+        <v>7.2355744157800501</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$7</f>
-        <v>13.856916118390654</v>
+        <v>5.3906120742915808</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$7</f>
-        <v>11.538373290738361</v>
+        <v>4.6385347445718672</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$7</f>
-        <v>11.755736680830765</v>
+        <v>5.4596249506459182</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$7</f>
-        <v>11.755736680830765</v>
+        <v>4.0206793082342127</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$7</f>
-        <v>14.001825045118924</v>
+        <v>6.5958920723539514</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$7</f>
-        <v>15.505255159924706</v>
+        <v>12.285650512260199</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$7</f>
-        <v>12.661417472882441</v>
+        <v>13.714180825563309</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$7</f>
-        <v>14.291642898575459</v>
+        <v>12.501202540768498</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5158,99 +5158,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$8</f>
-        <v>83.884154959826304</v>
+        <v>76.354928641903371</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$8</f>
-        <v>83.884154959826304</v>
+        <v>76.958715836604483</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$8</f>
-        <v>83.884154959826304</v>
+        <v>76.958715836604483</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$8</f>
-        <v>117.08641279644077</v>
+        <v>92.928887136449049</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$8</f>
-        <v>87.506878128033009</v>
+        <v>81.016165784995991</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$8</f>
-        <v>76.077186532340846</v>
+        <v>97.155397499356894</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$8</f>
-        <v>87.506878128033009</v>
+        <v>95.066293805690989</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$8</f>
-        <v>76.077186532340846</v>
+        <v>72.937493119895038</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$8</f>
-        <v>76.077186532340846</v>
+        <v>73.299765436715703</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>107.11184833997829</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>73.963931350886938</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>73.963931350886938</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$8</f>
-        <v>179.32479682623199</v>
+        <v>107.77601425414953</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$8</f>
-        <v>179.32479682623199</v>
+        <v>107.77601425414953</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>79.862932243116859</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>73.903552631416829</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>73.903552631416829</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>74.386582387177725</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>74.024310070357046</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>79.862932243116859</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$8</f>
-        <v>77.888548116444198</v>
+        <v>73.54128031459615</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$8</f>
-        <v>87.506878128033009</v>
+        <v>83.069042246979805</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$8</f>
-        <v>64.122200077258711</v>
+        <v>68.107195562286094</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$8</f>
-        <v>64.122200077258711</v>
+        <v>68.107195562286094</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5259,99 +5259,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$8</f>
-        <v>90.332602199234231</v>
+        <v>65.60147870427646</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$8</f>
-        <v>90.332602199234231</v>
+        <v>66.809053093678699</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$8</f>
-        <v>90.332602199234231</v>
+        <v>66.809053093678699</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$8</f>
-        <v>90.332602199234231</v>
+        <v>82.148266775060591</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$8</f>
-        <v>90.332602199234231</v>
+        <v>73.112591406358348</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$8</f>
-        <v>90.332602199234231</v>
+        <v>111.10590063292621</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$8</f>
-        <v>72.635599522544481</v>
+        <v>110.06134878609326</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$8</f>
-        <v>71.367646413672119</v>
+        <v>72.152569766783586</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$8</f>
-        <v>71.367646413672119</v>
+        <v>72.877114400424929</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$8</f>
-        <v>172.07935048981858</v>
+        <v>89.239747376825207</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$8</f>
-        <v>72.635599522544481</v>
+        <v>72.665788882279529</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$8</f>
-        <v>72.635599522544481</v>
+        <v>72.665788882279529</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$8</f>
-        <v>72.635599522544481</v>
+        <v>89.571830333910839</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$8</f>
-        <v>72.635599522544481</v>
+        <v>89.571830333910839</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$8</f>
-        <v>90.332602199234231</v>
+        <v>75.615289328394496</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$8</f>
-        <v>72.454463364134142</v>
+        <v>72.635599522544481</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$8</f>
-        <v>71.367646413672119</v>
+        <v>73.179007997775486</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$8</f>
-        <v>72.454463364134142</v>
+        <v>73.601659034066273</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$8</f>
-        <v>71.367646413672119</v>
+        <v>73.420522875655919</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$8</f>
-        <v>90.332602199234231</v>
+        <v>75.615289328394496</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$8</f>
-        <v>71.367646413672119</v>
+        <v>72.454463364134142</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$8</f>
-        <v>90.332602199234231</v>
+        <v>77.218344330325962</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$8</f>
-        <v>67.744923245465415</v>
+        <v>70.280829463210111</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$8</f>
-        <v>67.744923245465415</v>
+        <v>70.280829463210111</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5706,99 +5706,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$9</f>
-        <v>71.367646413672119</v>
+        <v>50.568687024205367</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$9</f>
-        <v>71.367646413672119</v>
+        <v>50.568687024205367</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$9</f>
-        <v>71.367646413672119</v>
+        <v>50.568687024205367</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$9</f>
-        <v>71.367646413672119</v>
+        <v>50.568687024205367</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$9</f>
-        <v>71.367646413672119</v>
+        <v>57.293366905189067</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$9</f>
-        <v>12.788212783769675</v>
+        <v>42.634923285832684</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$9</f>
-        <v>54.286506675577499</v>
+        <v>53.036667182546189</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$9</f>
-        <v>37.223480553323917</v>
+        <v>48.757325440102015</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$9</f>
-        <v>37.223480553323917</v>
+        <v>48.757325440102015</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$9</f>
-        <v>66.386402057387897</v>
+        <v>56.061641027998796</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$9</f>
-        <v>66.386402057387897</v>
+        <v>60.069278532827461</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$9</f>
-        <v>66.386402057387897</v>
+        <v>56.034470604237242</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$9</f>
-        <v>54.286506675577499</v>
+        <v>53.009496758784643</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$9</f>
-        <v>54.286506675577499</v>
+        <v>53.009496758784643</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$9</f>
-        <v>54.286506675577499</v>
+        <v>57.044304687374861</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$9</f>
-        <v>66.386402057387897</v>
+        <v>56.007300180475696</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$9</f>
-        <v>66.386402057387897</v>
+        <v>60.069278532827461</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$9</f>
-        <v>66.386402057387897</v>
+        <v>56.007300180475696</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$9</f>
-        <v>66.386402057387897</v>
+        <v>56.007300180475696</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$9</f>
-        <v>66.386402057387897</v>
+        <v>56.007300180475696</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$9</f>
-        <v>66.386402057387897</v>
+        <v>56.007300180475696</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$9</f>
-        <v>54.286506675577499</v>
+        <v>52.982326335023089</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$9</f>
-        <v>47.439559887666832</v>
+        <v>51.270589638045422</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$9</f>
-        <v>47.439559887666832</v>
+        <v>49.871312814325577</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5807,99 +5807,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$9</f>
-        <v>4.0212227167094454</v>
+        <v>57.501673487360954</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$9</f>
-        <v>3.9849954850273779</v>
+        <v>57.501673487360954</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$9</f>
-        <v>4.0212227167094454</v>
+        <v>57.501673487360954</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$9</f>
-        <v>4.0212227167094454</v>
+        <v>57.501673487360954</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>61.984793408016756</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$9</f>
-        <v>67.962286635557831</v>
+        <v>32.686019785145014</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$9</f>
-        <v>67.962286635557831</v>
+        <v>53.453280346889954</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$9</f>
-        <v>36.263458913749133</v>
+        <v>44.912710477842651</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$9</f>
-        <v>47.095401186687191</v>
+        <v>44.912710477842651</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>59.503228037795161</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>62.174986374347611</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$9</f>
-        <v>68.650604037517098</v>
+        <v>59.485114421954137</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$9</f>
-        <v>68.650604037517098</v>
+        <v>53.43516673104893</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$9</f>
-        <v>68.650604037517098</v>
+        <v>53.43516673104893</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>56.125038683442405</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>59.467000806113091</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$9</f>
-        <v>46.497651863933086</v>
+        <v>62.174986374347611</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>59.467000806113091</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>59.467000806113091</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>59.467000806113091</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>59.467000806113091</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$9</f>
-        <v>67.944173019716786</v>
+        <v>53.417053115207899</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$9</f>
-        <v>54.68500622408024</v>
+        <v>49.993579721252559</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$9</f>
-        <v>54.68500622408024</v>
+        <v>49.060728505439329</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/CS1/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD2EB4-EDC2-4EDC-AF18-87AC9AB97F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C43B632-F54B-4BEE-90B3-CD8C415918F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,7 +2240,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,16 +2256,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
